--- a/sd_checklist_meta2_2019.xlsx
+++ b/sd_checklist_meta2_2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vital\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vital\Desktop\ucBusca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA30F184-983B-4563-8729-1D50F922342E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A707D3EC-D503-43C2-BF77-A4E5913AFEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,10 +967,10 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1135,7 +1135,7 @@
       <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="12">
         <v>5</v>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       <c r="B17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="12">
         <v>5</v>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       <c r="B21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="12">
         <v>5</v>
       </c>
     </row>
@@ -1334,11 +1334,13 @@
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
